--- a/exampleinputs/crops2.xlsx
+++ b/exampleinputs/crops2.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38380" windowHeight="17700"/>
+    <workbookView xWindow="6140" yWindow="0" windowWidth="14260" windowHeight="19740"/>
   </bookViews>
   <sheets>
     <sheet name="wheat" sheetId="1" r:id="rId1"/>
     <sheet name="Chickpea" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
   <si>
     <t>CROP:</t>
   </si>
@@ -306,156 +306,9 @@
     <t>bdPMHM</t>
   </si>
   <si>
-    <t xml:space="preserve">phyl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAPOW300 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_plapow_d </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_plapow_d </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FrzTh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FrzLDR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HeatTH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HtLDR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBRUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP1RUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP2RUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCRUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2RUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLF1A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLF1B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTOPL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLF2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRTRL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDHI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDHI1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDHI2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDHI3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDHI4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">iDEPORT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEED </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRTDP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEC350 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEC700 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSSG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSSL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSSD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSSN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLDKL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLNG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLNS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNCG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNCS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNCmin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNCmax </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXNUP </t>
-  </si>
-  <si>
     <t>durum wheat</t>
   </si>
   <si>
-    <t>pTbasdev</t>
-  </si>
-  <si>
-    <t>pTopt1dev</t>
-  </si>
-  <si>
-    <t>pTop2dev</t>
-  </si>
-  <si>
-    <t>pTlethaldev</t>
-  </si>
-  <si>
     <t>toto</t>
   </si>
   <si>
@@ -669,46 +522,70 @@
     <t>list(phenofunction='fThermoCardinal', threshold=100,paramsFunctPheno=list(Tbase=0, Topt1=23, Topt2=27, Tlethal=35))</t>
   </si>
   <si>
-    <t>pTbaseVernalization</t>
-  </si>
-  <si>
-    <t>pTopt1Vernalization</t>
-  </si>
-  <si>
-    <t>pTop2Vernalization</t>
-  </si>
-  <si>
-    <t>pTlethalVernalization</t>
-  </si>
-  <si>
-    <t>pVDSAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pVernalisationSensitivity </t>
-  </si>
-  <si>
-    <t>pCriticalPhotoPerdiod</t>
-  </si>
-  <si>
-    <t>pPhotoPeriodSensitivity</t>
-  </si>
-  <si>
     <t>thresholds</t>
   </si>
   <si>
-    <t>correspondingfunction</t>
-  </si>
-  <si>
-    <t>phenology</t>
-  </si>
-  <si>
-    <t>vernalization</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
     <t>is.after('germination', 4) &amp; is.before('floraison', paramscrops$wheat$thresholds$floraison-2)</t>
+  </si>
+  <si>
+    <t>vernalisation.filter</t>
+  </si>
+  <si>
+    <t>photoperiod.filter</t>
+  </si>
+  <si>
+    <t>waterstress.filter</t>
+  </si>
+  <si>
+    <t>LAI_Mainstem.filter</t>
+  </si>
+  <si>
+    <t>LAI_Secondary.filter</t>
+  </si>
+  <si>
+    <t>DMDistribution_SeedGrowing.filter</t>
+  </si>
+  <si>
+    <t>DMProduction.filter</t>
+  </si>
+  <si>
+    <t>is.after('germination', 0) &amp; is.before('Booting', 0)</t>
+  </si>
+  <si>
+    <t>is.after('emergence', 0) &amp; is.before('tillering', 0)</t>
+  </si>
+  <si>
+    <t>is.after('emergence', 0) &amp; is.before('senescence', 10)</t>
+  </si>
+  <si>
+    <t>is.after('Booting', 0) &amp; is.before('earing', 5)</t>
+  </si>
+  <si>
+    <t>is.after('earing', paramscrops$wheat$thresholds$earing+5) &amp; is.before('anthesis', paramscrops$wheat$thresholds$anthesis-1.5)</t>
+  </si>
+  <si>
+    <t>is.after('germination') &amp; is.before('anthesis', paramscrops$wheat$thresholds$anthesis-1.5)</t>
+  </si>
+  <si>
+    <t>TBVER</t>
+  </si>
+  <si>
+    <t>TP1VER</t>
+  </si>
+  <si>
+    <t>TP2VER</t>
+  </si>
+  <si>
+    <t>TCVER</t>
+  </si>
+  <si>
+    <t>VDSAT</t>
+  </si>
+  <si>
+    <t>rRootDepth.filter</t>
+  </si>
+  <si>
+    <t>is.after('emergence',0) &amp; is.before('anthesis',5)</t>
   </si>
 </sst>
 </file>
@@ -718,7 +595,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,8 +692,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +748,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -895,7 +784,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -938,8 +827,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1002,14 +915,15 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="66">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -1030,6 +944,18 @@
     <cellStyle name="Lien hypertexte" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
@@ -1050,6 +976,18 @@
     <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
@@ -1351,1131 +1289,1049 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="D2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="10">
+        <v>118</v>
+      </c>
       <c r="D3" s="10">
         <v>118</v>
       </c>
-      <c r="E3" s="10">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
       <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="10">
+        <v>2.5</v>
+      </c>
       <c r="D5" s="10">
         <v>2.5</v>
       </c>
-      <c r="E5" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
       <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
       <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10">
+      <c r="C8" s="10">
         <v>0.02</v>
       </c>
-      <c r="E8" s="22">
+      <c r="D8" s="22">
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="10">
+        <v>-5</v>
+      </c>
       <c r="D9" s="10">
         <v>-5</v>
       </c>
-      <c r="E9" s="10">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="10">
+        <v>0.01</v>
+      </c>
       <c r="D10" s="10">
         <v>0.01</v>
       </c>
-      <c r="E10" s="10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="10">
+        <v>30</v>
+      </c>
       <c r="D11" s="10">
         <v>30</v>
       </c>
-      <c r="E11" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="10">
+        <v>0.1</v>
+      </c>
       <c r="D12" s="10">
         <v>0.1</v>
       </c>
-      <c r="E12" s="10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
       <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="10">
+        <v>15</v>
+      </c>
       <c r="D14" s="10">
         <v>15</v>
       </c>
-      <c r="E14" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="10">
+        <v>22</v>
+      </c>
       <c r="D15" s="10">
         <v>22</v>
       </c>
-      <c r="E15" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="10">
+        <v>35</v>
+      </c>
       <c r="D16" s="10">
         <v>35</v>
       </c>
-      <c r="E16" s="10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="10">
+        <v>0.65</v>
+      </c>
       <c r="D17" s="10">
         <v>0.65</v>
       </c>
-      <c r="E17" s="10">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="10">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="D18" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E18" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="10">
+        <v>0.8</v>
+      </c>
       <c r="D19" s="10">
         <v>0.8</v>
       </c>
-      <c r="E19" s="10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="10">
+        <v>0.6</v>
+      </c>
       <c r="D20" s="10">
         <v>0.6</v>
       </c>
-      <c r="E20" s="10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="10">
+        <v>0.3</v>
+      </c>
       <c r="D21" s="10">
         <v>0.3</v>
       </c>
-      <c r="E21" s="10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="10">
+        <v>160</v>
+      </c>
       <c r="D22" s="10">
         <v>160</v>
       </c>
-      <c r="E22" s="10">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="10">
+        <v>0.1</v>
+      </c>
       <c r="D23" s="10">
         <v>0.1</v>
       </c>
-      <c r="E23" s="10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="10">
+        <v>0.22</v>
+      </c>
       <c r="D24" s="10">
         <v>0.22</v>
       </c>
-      <c r="E24" s="10">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
       <c r="D25" s="10">
         <v>1</v>
       </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="10">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="D26" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E26" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
       <c r="D27" s="10">
         <v>0</v>
       </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="10">
+        <v>600</v>
+      </c>
       <c r="D28" s="10">
         <v>600</v>
       </c>
-      <c r="E28" s="10">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="10">
+        <v>1200</v>
+      </c>
       <c r="D29" s="10">
         <v>1200</v>
       </c>
-      <c r="E29" s="10">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="10">
+        <v>3200</v>
+      </c>
       <c r="D30" s="10">
         <v>3200</v>
       </c>
-      <c r="E30" s="10">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="10">
+        <v>200</v>
+      </c>
       <c r="D31" s="10">
         <v>200</v>
       </c>
-      <c r="E31" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8" t="s">
-        <v>61</v>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="10">
+        <v>1000</v>
+      </c>
       <c r="D32" s="10">
         <v>1000</v>
       </c>
-      <c r="E32" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="8" t="s">
-        <v>62</v>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="10">
+        <v>30</v>
+      </c>
       <c r="D33" s="10">
         <v>30</v>
       </c>
-      <c r="E33" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="13" t="s">
-        <v>63</v>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="10">
+        <v>5.8</v>
+      </c>
       <c r="D34" s="10">
         <v>5.8</v>
       </c>
-      <c r="E34" s="10">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="13" t="s">
-        <v>64</v>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
       <c r="D35" s="10">
         <v>0</v>
       </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8" t="s">
-        <v>65</v>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="10">
+        <v>0.3</v>
+      </c>
       <c r="D36" s="10">
         <v>0.3</v>
       </c>
-      <c r="E36" s="10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8" t="s">
-        <v>66</v>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="10">
+        <v>0.5</v>
+      </c>
       <c r="D37" s="10">
         <v>0.5</v>
       </c>
-      <c r="E37" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="8" t="s">
-        <v>67</v>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="10">
+        <v>0.4</v>
+      </c>
       <c r="D38" s="10">
         <v>0.4</v>
       </c>
-      <c r="E38" s="10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8" t="s">
-        <v>68</v>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
       <c r="D39" s="10">
         <v>0</v>
       </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="10">
+        <v>20</v>
+      </c>
       <c r="D40" s="10">
         <v>20</v>
       </c>
-      <c r="E40" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="8" t="s">
-        <v>70</v>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="15">
+        <v>1.8</v>
+      </c>
       <c r="D41" s="15">
         <v>1.8</v>
       </c>
-      <c r="E41" s="15">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="8" t="s">
-        <v>71</v>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="15">
+        <v>0.4</v>
+      </c>
       <c r="D42" s="15">
         <v>0.4</v>
       </c>
-      <c r="E42" s="15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="8" t="s">
-        <v>72</v>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="15">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="D43" s="15">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E43" s="15">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="8" t="s">
-        <v>73</v>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="15">
+        <v>5.1000000000000004E-3</v>
+      </c>
       <c r="D44" s="15">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E44" s="15">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="8" t="s">
-        <v>74</v>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C45" s="15">
+        <v>2.0899999999999998E-2</v>
+      </c>
       <c r="D45" s="15">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="E45" s="15">
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="15">
         <v>2.0899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D46" s="15">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="E46" s="15">
-        <v>2.0899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="8" t="s">
-        <v>76</v>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="15">
+        <v>0.25</v>
+      </c>
       <c r="D47" s="15">
         <v>0.25</v>
       </c>
-      <c r="E47" s="15">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="8" t="s">
-        <v>78</v>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="10">
+        <v>0</v>
+      </c>
       <c r="D48" s="10">
         <v>0</v>
       </c>
-      <c r="E48" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="8" t="s">
-        <v>79</v>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="10">
+        <v>27.5</v>
+      </c>
       <c r="D49" s="10">
         <v>27.5</v>
       </c>
-      <c r="E49" s="10">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="8" t="s">
-        <v>80</v>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="9"/>
+      <c r="C50" s="10">
+        <v>27.5</v>
+      </c>
       <c r="D50" s="10">
         <v>27.5</v>
       </c>
-      <c r="E50" s="10">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="8" t="s">
-        <v>81</v>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="10">
+        <v>40</v>
+      </c>
       <c r="D51" s="10">
         <v>40</v>
       </c>
-      <c r="E51" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="8" t="s">
-        <v>153</v>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+      <c r="C52" s="10">
+        <v>-1</v>
+      </c>
       <c r="D52" s="10">
         <v>-1</v>
       </c>
-      <c r="E52" s="10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>154</v>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0</v>
       </c>
       <c r="D53" s="10">
         <v>0</v>
       </c>
-      <c r="E53" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>155</v>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="10">
+        <v>8</v>
       </c>
       <c r="D54" s="10">
         <v>8</v>
       </c>
-      <c r="E54" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>156</v>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="10">
+        <v>12</v>
       </c>
       <c r="D55" s="10">
         <v>12</v>
       </c>
-      <c r="E55" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>157</v>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="10">
+        <v>50</v>
       </c>
       <c r="D56" s="10">
         <v>50</v>
       </c>
-      <c r="E56" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="8" t="s">
-        <v>158</v>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="10">
+        <v>2E-3</v>
+      </c>
       <c r="D57" s="10">
         <v>2E-3</v>
       </c>
-      <c r="E57" s="10">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="8" t="s">
-        <v>159</v>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="10">
+        <v>14</v>
+      </c>
       <c r="D58" s="10">
         <v>14</v>
       </c>
-      <c r="E58" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="8" t="s">
-        <v>160</v>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="10">
+        <v>0.17</v>
+      </c>
       <c r="D59" s="10">
         <v>0.17</v>
       </c>
-      <c r="E59" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="16" t="s">
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="10">
+        <v>6</v>
+      </c>
       <c r="D60" s="10">
         <v>6</v>
       </c>
-      <c r="E60" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="17" t="s">
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="9"/>
+      <c r="C61" s="10">
+        <v>5</v>
+      </c>
       <c r="D61" s="10">
         <v>5</v>
       </c>
-      <c r="E61" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="17" t="s">
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="9"/>
+      <c r="C62" s="10">
+        <v>8</v>
+      </c>
       <c r="D62" s="10">
         <v>8</v>
       </c>
-      <c r="E62" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="17" t="s">
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="10">
+        <v>6</v>
+      </c>
       <c r="D63" s="10">
         <v>6</v>
       </c>
-      <c r="E63" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="17" t="s">
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="9"/>
+      <c r="C64" s="10">
+        <v>6</v>
+      </c>
       <c r="D64" s="10">
         <v>6</v>
       </c>
-      <c r="E64" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="17" t="s">
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="10">
+        <v>15</v>
+      </c>
       <c r="D65" s="10">
         <v>15</v>
       </c>
-      <c r="E65" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="17" t="s">
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="10">
+        <v>43</v>
+      </c>
       <c r="D66" s="10">
         <v>43</v>
       </c>
-      <c r="E66" s="10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="17" t="s">
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="9"/>
+      <c r="C67" s="10">
+        <v>8</v>
+      </c>
       <c r="D67" s="10">
         <v>8</v>
       </c>
-      <c r="E67" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="1" customFormat="1">
-      <c r="A68" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" s="31" t="str">
-        <f>"list(germination="&amp;D60&amp;"emergence="&amp;D61&amp;",tillering="&amp;D62&amp;",stemElongation="&amp;D63&amp;",Booting="&amp;D64&amp;",earing="&amp;D65&amp;",anthesis="&amp;D66&amp;",maturation="&amp;D67&amp;",senescence=Inf)"</f>
-        <v>list(germination=6emergence=5,tillering=8,stemElongation=6,Booting=6,earing=15,anthesis=43,maturation=8,senescence=Inf)</v>
-      </c>
-      <c r="E68" s="31" t="str">
-        <f>"list(germination="&amp;E60&amp;"emergence="&amp;E61&amp;",tillering="&amp;E62&amp;",stemElongation="&amp;E63&amp;",Booting="&amp;E64&amp;",earing="&amp;E65&amp;",anthesis="&amp;E66&amp;",maturation="&amp;E67&amp;",senescence=Inf)"</f>
-        <v>list(germination=6emergence=5,tillering=8,stemElongation=6,Booting=6,earing=15,anthesis=43,maturation=8,senescence=Inf)</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="1" customFormat="1">
-      <c r="A69" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D70" s="30">
-        <f>D52</f>
-        <v>-1</v>
-      </c>
-      <c r="E70" s="30">
-        <f>E52</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D71" s="30">
-        <f>D53</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="30">
-        <f>E53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D72" s="30">
-        <f>D54</f>
-        <v>8</v>
-      </c>
-      <c r="E72" s="30">
-        <f>E54</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D73" s="30">
-        <f>D55</f>
-        <v>12</v>
-      </c>
-      <c r="E73" s="30">
-        <f>E55</f>
-        <v>12</v>
-      </c>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D74" s="30">
-        <f>D56</f>
-        <v>50</v>
-      </c>
-      <c r="E74" s="30">
-        <f>E56</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D75" s="30">
-        <f>D57</f>
-        <v>2E-3</v>
-      </c>
-      <c r="E75" s="30">
-        <f>E57</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="68" spans="1:5" s="1" customFormat="1">
+      <c r="A68" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="32"/>
+      <c r="C68" s="33" t="str">
+        <f>"list(germination="&amp;C60&amp;",emergence="&amp;C61&amp;",tillering="&amp;C62&amp;",stemElongation="&amp;C63&amp;",Booting="&amp;C64&amp;",earing="&amp;C65&amp;",anthesis="&amp;C66&amp;",maturation="&amp;C67&amp;",senescence=Inf)"</f>
+        <v>list(germination=6,emergence=5,tillering=8,stemElongation=6,Booting=6,earing=15,anthesis=43,maturation=8,senescence=Inf)</v>
+      </c>
+      <c r="D68" s="33" t="str">
+        <f>"list(germination="&amp;D60&amp;",emergence="&amp;D61&amp;",tillering="&amp;D62&amp;",stemElongation="&amp;D63&amp;",Booting="&amp;D64&amp;",earing="&amp;D65&amp;",anthesis="&amp;D66&amp;",maturation="&amp;D67&amp;",senescence=Inf)"</f>
+        <v>list(germination=6,emergence=5,tillering=8,stemElongation=6,Booting=6,earing=15,anthesis=43,maturation=8,senescence=Inf)</v>
+      </c>
+      <c r="E68" s="30"/>
+    </row>
+    <row r="69" spans="1:5" s="1" customFormat="1">
+      <c r="A69" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="32"/>
+      <c r="C69" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="30"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="32"/>
+      <c r="C70" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" s="31"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="32"/>
+      <c r="C71" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="31"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="31"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="32"/>
+      <c r="C73" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="31"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="31"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="31"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
       <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
+      <c r="C76" s="33" t="s">
+        <v>125</v>
+      </c>
       <c r="D76"/>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:5">
       <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
+      <c r="C77"/>
       <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77" s="2"/>
+      <c r="E77" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2494,8 +2350,8 @@
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2504,25 +2360,27 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C1" s="23" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="25">
@@ -2531,7 +2389,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="25">
@@ -2540,7 +2398,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="25">
@@ -2549,7 +2407,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="25">
@@ -2558,7 +2416,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="25">
@@ -2567,7 +2425,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="25">
@@ -2576,7 +2434,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="25">
@@ -2585,7 +2443,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="25">
@@ -2594,7 +2452,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="25">
@@ -2603,7 +2461,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="25">
@@ -2612,7 +2470,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="25">
@@ -2621,7 +2479,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="25">
@@ -2630,7 +2488,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="25">
@@ -2639,7 +2497,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="25">
@@ -2648,7 +2506,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="25">
@@ -2657,7 +2515,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="25">
@@ -2666,7 +2524,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="25">
@@ -2675,7 +2533,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="25">
@@ -2684,7 +2542,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="25">
@@ -2693,7 +2551,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="25">
@@ -2702,7 +2560,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="25">
@@ -2711,7 +2569,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="25">
@@ -2720,7 +2578,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="26">
@@ -2729,7 +2587,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="12" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="25">
@@ -2738,7 +2596,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="25">
@@ -2747,7 +2605,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="25">
@@ -2756,7 +2614,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="25">
@@ -2765,7 +2623,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="12" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="25">
@@ -2774,7 +2632,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="25">
@@ -2783,7 +2641,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="8" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="25">
@@ -2792,7 +2650,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="25">
@@ -2801,7 +2659,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="13" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="25">
@@ -2810,7 +2668,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="13" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="25">
@@ -2819,7 +2677,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="25">
@@ -2828,7 +2686,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="25">
@@ -2837,7 +2695,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="8" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="25">
@@ -2846,7 +2704,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="8" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="25">
@@ -2855,7 +2713,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="25">
@@ -2864,7 +2722,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="8" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="25">
@@ -2873,7 +2731,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="8" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="25">
@@ -2882,7 +2740,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="8" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="25">
@@ -2891,7 +2749,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="8" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="25">
@@ -2900,7 +2758,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="25">
@@ -2909,7 +2767,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="8" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="25">
@@ -2918,7 +2776,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="25">
@@ -2927,7 +2785,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="25">
@@ -2936,7 +2794,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="8" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="27">
@@ -2945,7 +2803,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="8" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="27">
@@ -2954,7 +2812,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="27">
@@ -2963,16 +2821,17 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="8" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B52" s="8"/>
-      <c r="C52" s="27" t="s">
-        <v>3</v>
+      <c r="C52" s="27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="25">
@@ -2981,7 +2840,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="8" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="25">
@@ -3062,7 +2921,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="18" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="28">
@@ -3071,7 +2930,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="19" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="28">
@@ -3080,7 +2939,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="20" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="29">
@@ -3089,7 +2948,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="20" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="29">
@@ -3098,7 +2957,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="18" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="28">
@@ -3107,7 +2966,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="18" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="28">
@@ -3116,7 +2975,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="18" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="28">
@@ -3125,7 +2984,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="21" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="29">
@@ -3134,26 +2993,26 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="18" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="18" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="18" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
